--- a/IMPORTANT/NOVICE.xlsx
+++ b/IMPORTANT/NOVICE.xlsx
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1152,7 +1152,7 @@
         <v>44912</v>
       </c>
       <c r="B5" s="8">
-        <v>25285</v>
+        <v>25282</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-2323</v>
+        <v>-2326</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1208,11 +1208,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1224,11 +1224,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,11 +1240,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1256,11 +1256,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1272,11 +1272,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1288,11 +1288,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1304,11 +1304,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1320,11 +1320,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,11 +1336,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1352,11 +1352,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1368,11 +1368,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,11 +1384,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1400,11 +1400,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1416,11 +1416,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,11 +1432,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,11 +1448,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1464,11 +1464,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,11 +1480,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1496,11 +1496,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,11 +1512,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,11 +1528,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,11 +1544,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,11 +1560,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,11 +1576,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,11 +1592,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,11 +1608,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,11 +1624,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1641,11 +1641,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44928</v>
+        <v>44930</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1666,7 +1666,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>27960</v>
+        <v>27957</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOVICE.xlsx
+++ b/IMPORTANT/NOVICE.xlsx
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44930</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/NOVICE.xlsx
+++ b/IMPORTANT/NOVICE.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44956</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/NOVICE.xlsx
+++ b/IMPORTANT/NOVICE.xlsx
@@ -54,7 +54,7 @@
     <t>CUSTOMER NAME -  NOVICE</t>
   </si>
   <si>
-    <t>INSURANCE</t>
+    <t xml:space="preserve">ADVANCE </t>
   </si>
 </sst>
 </file>
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1148,71 +1148,55 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44912</v>
-      </c>
-      <c r="B5" s="8">
-        <v>25282</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44908</v>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="G5" s="8">
-        <v>23466</v>
+        <v>46</v>
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-2326</v>
+        <v>-46</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>58</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44912</v>
-      </c>
-      <c r="B6" s="8">
-        <v>2625</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44910</v>
-      </c>
-      <c r="G6" s="8">
-        <v>4142</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>299</v>
+        <v>-46</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>58</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49"/>
-      <c r="B7" s="16">
-        <v>50</v>
-      </c>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="51" t="s">
-        <v>12</v>
-      </c>
+      <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1224,11 +1208,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,11 +1224,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1256,11 +1240,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1272,11 +1256,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1288,11 +1272,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1304,11 +1288,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1320,11 +1304,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,11 +1320,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1352,11 +1336,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1368,11 +1352,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,11 +1368,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1400,11 +1384,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1416,11 +1400,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,11 +1416,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,11 +1432,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1464,11 +1448,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,11 +1464,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1496,11 +1480,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,11 +1496,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,11 +1512,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,11 +1528,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,11 +1544,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,11 +1560,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,11 +1576,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,11 +1592,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,11 +1608,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1641,11 +1625,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44970</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1666,7 +1650,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>27957</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1674,7 +1658,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>27608</v>
+        <v>46</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1697,7 +1681,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>349</v>
+        <v>-46</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOVICE.xlsx
+++ b/IMPORTANT/NOVICE.xlsx
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1156,15 +1156,15 @@
         <v>12</v>
       </c>
       <c r="G5" s="8">
-        <v>46</v>
+        <v>680</v>
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1176,11 +1176,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,11 +1192,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1208,11 +1208,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1224,11 +1224,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,11 +1240,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1256,11 +1256,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1272,11 +1272,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1288,11 +1288,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1304,11 +1304,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1320,11 +1320,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,11 +1336,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1352,11 +1352,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1368,11 +1368,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,11 +1384,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1400,11 +1400,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1416,11 +1416,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,11 +1432,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,11 +1448,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1464,11 +1464,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,11 +1480,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1496,11 +1496,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,11 +1512,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,11 +1528,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,11 +1544,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,11 +1560,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,11 +1576,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,11 +1592,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,11 +1608,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,11 +1625,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44984</v>
+        <v>45014</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1658,7 +1658,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>46</v>
+        <v>680</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>-46</v>
+        <v>-680</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOVICE.xlsx
+++ b/IMPORTANT/NOVICE.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45014</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/NOVICE.xlsx
+++ b/IMPORTANT/NOVICE.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I38"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1148,8 +1148,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>45033</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4836</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7" t="s">
@@ -1160,27 +1164,29 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-680</v>
+        <v>4156</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45028</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>22532</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,11 +1198,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1208,11 +1214,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1224,11 +1230,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,11 +1246,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1256,11 +1262,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1272,11 +1278,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1288,11 +1294,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1304,11 +1310,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1320,11 +1326,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,11 +1342,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1352,11 +1358,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1368,11 +1374,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,11 +1390,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1400,11 +1406,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1416,11 +1422,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,11 +1438,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,11 +1454,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1464,11 +1470,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,11 +1486,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1496,11 +1502,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,11 +1518,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,11 +1534,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,11 +1550,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,11 +1566,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,11 +1582,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,11 +1598,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,11 +1614,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,11 +1631,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45028</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1650,7 +1656,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>27368</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1681,7 +1687,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>-680</v>
+        <v>26688</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOVICE.xlsx
+++ b/IMPORTANT/NOVICE.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="M11" sqref="M10:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,29 +1164,35 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>4156</v>
+        <v>-5844</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7">
+        <v>45033</v>
+      </c>
       <c r="B6" s="8">
         <v>22532</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>45030</v>
+      </c>
+      <c r="G6" s="8">
+        <v>10000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45042</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1198,11 +1204,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1220,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1236,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1252,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1268,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,11 +1284,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1294,11 +1300,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1316,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1332,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1348,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1364,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1380,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1396,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1412,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1428,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1444,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1460,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1476,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1492,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1508,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1524,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1540,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1556,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1572,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1588,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1604,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,11 +1620,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,11 +1637,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45042</v>
+        <v>45043</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1664,7 +1670,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>680</v>
+        <v>10680</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1687,7 +1693,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>26688</v>
+        <v>16688</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOVICE.xlsx
+++ b/IMPORTANT/NOVICE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME -  NOVICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADVANCE </t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M10:M11"/>
+      <selection activeCell="A5" sqref="A5:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1148,51 +1145,35 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>45033</v>
-      </c>
-      <c r="B5" s="8">
-        <v>4836</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="8">
-        <v>680</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-5844</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>10</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>45033</v>
-      </c>
-      <c r="B6" s="8">
-        <v>22532</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>45030</v>
-      </c>
-      <c r="G6" s="8">
-        <v>10000</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>10</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1204,11 +1185,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1220,11 +1201,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1236,11 +1217,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1252,11 +1233,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1268,11 +1249,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1284,11 +1265,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1300,11 +1281,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1316,11 +1297,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1332,11 +1313,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1348,11 +1329,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1364,11 +1345,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1380,11 +1361,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1396,11 +1377,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1412,11 +1393,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,11 +1409,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1444,11 +1425,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1460,11 +1441,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,11 +1457,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1492,11 +1473,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1508,11 +1489,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,11 +1505,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1540,11 +1521,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1556,11 +1537,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1572,11 +1553,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1588,11 +1569,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1604,11 +1585,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1620,11 +1601,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1637,11 +1618,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45043</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1662,7 +1643,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>27368</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1670,7 +1651,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>10680</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1693,7 +1674,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>16688</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOVICE.xlsx
+++ b/IMPORTANT/NOVICE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>CUSTOMER NAME -  NOVICE</t>
+  </si>
+  <si>
+    <t>insurance for 4 cartoon</t>
   </si>
 </sst>
 </file>
@@ -288,7 +291,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -403,9 +406,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G11"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,71 +1145,91 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>45064</v>
+      </c>
+      <c r="B5" s="8">
+        <v>16640</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>45062</v>
+      </c>
+      <c r="G5" s="8">
+        <v>10000</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>6640</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45066</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7">
+        <v>45068</v>
+      </c>
+      <c r="B6" s="8">
+        <v>44582</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>51222</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45066</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>45068</v>
+      </c>
+      <c r="B7" s="16">
+        <v>5700</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>56922</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45066</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="52"/>
+      <c r="C8" s="19">
+        <v>200</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="53"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
@@ -1217,15 +1237,15 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
@@ -1233,15 +1253,15 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="53"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
@@ -1249,15 +1269,15 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="53"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
@@ -1265,15 +1285,15 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="53"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
@@ -1281,15 +1301,15 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="53"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
@@ -1297,15 +1317,15 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="53"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
@@ -1313,15 +1333,15 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="53"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
       <c r="D16" s="18"/>
@@ -1329,15 +1349,15 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="53"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="18"/>
@@ -1345,15 +1365,15 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="53"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="18"/>
@@ -1361,15 +1381,15 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="53"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="18"/>
@@ -1377,15 +1397,15 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="53"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="18"/>
@@ -1393,15 +1413,15 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="53"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="18"/>
@@ -1409,15 +1429,15 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="53"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
       <c r="D22" s="18"/>
@@ -1425,15 +1445,15 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="53"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
       <c r="D23" s="18"/>
@@ -1441,15 +1461,15 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="53"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
       <c r="D24" s="18"/>
@@ -1457,15 +1477,15 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="53"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
       <c r="D25" s="18"/>
@@ -1473,15 +1493,15 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="53"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="18"/>
@@ -1489,15 +1509,15 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="53"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="18"/>
@@ -1505,15 +1525,15 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="53"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="18"/>
@@ -1521,15 +1541,15 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="53"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
       <c r="D29" s="18"/>
@@ -1537,15 +1557,15 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="53"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
       <c r="D30" s="18"/>
@@ -1553,15 +1573,15 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="53"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
       <c r="D31" s="18"/>
@@ -1569,15 +1589,15 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="53"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
       <c r="D32" s="18"/>
@@ -1585,15 +1605,15 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="54"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
       <c r="D33" s="18"/>
@@ -1601,15 +1621,15 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="55"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="22"/>
       <c r="C34" s="23"/>
       <c r="D34" s="22"/>
@@ -1618,11 +1638,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1643,7 +1663,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>67122</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1651,7 +1671,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1674,7 +1694,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>57122</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOVICE.xlsx
+++ b/IMPORTANT/NOVICE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>DATE</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>insurance for 4 cartoon</t>
+  </si>
+  <si>
+    <t>RTGS</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1077,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1093,12 +1096,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="E1" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>11</v>
       </c>
@@ -1109,7 +1112,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1">
+    <row r="3" spans="1:10" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1118,7 +1121,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="5" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
         <v>45064</v>
       </c>
@@ -1161,14 +1164,14 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>6640</v>
+        <v>-51924</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7">
         <v>45068</v>
       </c>
@@ -1177,18 +1180,25 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>45094</v>
+      </c>
+      <c r="G6" s="8">
+        <v>18564</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>51222</v>
+        <v>-7342</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49">
         <v>45068</v>
       </c>
@@ -1197,18 +1207,22 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>45094</v>
+      </c>
+      <c r="G7" s="16">
+        <v>40000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>56922</v>
+        <v>-1642</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="19">
@@ -1221,14 +1235,14 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45091</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
@@ -1237,14 +1251,14 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45091</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="52"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1253,14 +1267,14 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="52"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
@@ -1269,14 +1283,14 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="52"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
@@ -1285,14 +1299,14 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <v>45094</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="52"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -1301,14 +1315,14 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="52"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
@@ -1317,14 +1331,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="52"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
@@ -1333,14 +1347,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45094</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="52"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
@@ -1349,11 +1363,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1379,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1395,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1411,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1427,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1443,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45091</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1459,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1475,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1491,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1507,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1523,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1539,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1555,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1571,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1587,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1603,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1619,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,11 +1635,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1638,11 +1652,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45091</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1671,7 +1685,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>10000</v>
+        <v>68564</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1694,7 +1708,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>57122</v>
+        <v>-1442</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOVICE.xlsx
+++ b/IMPORTANT/NOVICE.xlsx
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45094</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/NOVICE.xlsx
+++ b/IMPORTANT/NOVICE.xlsx
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45098</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/NOVICE.xlsx
+++ b/IMPORTANT/NOVICE.xlsx
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection sqref="A1:I38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1239,39 +1239,47 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="52">
+        <v>45105</v>
+      </c>
+      <c r="B9" s="13">
+        <v>53490</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-1442</v>
+        <v>52048</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45111</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="52">
+        <v>45105</v>
+      </c>
+      <c r="B10" s="13">
+        <v>8620</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1283,11 +1291,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1299,11 +1307,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1315,11 +1323,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1331,11 +1339,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1347,11 +1355,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1363,11 +1371,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1379,11 +1387,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1395,11 +1403,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1411,11 +1419,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1427,11 +1435,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1443,11 +1451,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1459,11 +1467,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1475,11 +1483,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1491,11 +1499,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1507,11 +1515,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1523,11 +1531,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1539,11 +1547,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1555,11 +1563,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1571,11 +1579,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1587,11 +1595,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,11 +1611,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1627,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1635,11 +1643,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1652,11 +1660,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45111</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1677,7 +1685,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>67122</v>
+        <v>129232</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1708,7 +1716,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>-1442</v>
+        <v>60668</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOVICE.xlsx
+++ b/IMPORTANT/NOVICE.xlsx
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45112</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/NOVICE.xlsx
+++ b/IMPORTANT/NOVICE.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-51924</v>
+        <v>-109354</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-7342</v>
+        <v>-64772</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -1215,11 +1215,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-1642</v>
+        <v>-59072</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1231,15 +1231,19 @@
       <c r="D8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>45133</v>
+      </c>
+      <c r="G8" s="16">
+        <v>17430</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-1442</v>
+        <v>-58872</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1251,15 +1255,19 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="15">
+        <v>45133</v>
+      </c>
+      <c r="G9" s="16">
+        <v>40000</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>52048</v>
+        <v>-5382</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1275,11 +1283,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1291,11 +1299,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1307,11 +1315,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1323,11 +1331,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1339,11 +1347,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1355,11 +1363,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1371,11 +1379,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1387,11 +1395,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1403,11 +1411,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1419,11 +1427,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1435,11 +1443,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1451,11 +1459,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1467,11 +1475,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1483,11 +1491,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1499,11 +1507,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1515,11 +1523,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1531,11 +1539,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1547,11 +1555,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1563,11 +1571,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1579,11 +1587,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1595,11 +1603,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1611,11 +1619,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1627,11 +1635,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1643,11 +1651,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1660,11 +1668,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45125</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1693,7 +1701,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>68564</v>
+        <v>125994</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1716,7 +1724,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>60668</v>
+        <v>3238</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/NOVICE.xlsx
+++ b/IMPORTANT/NOVICE.xlsx
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45133</v>
+        <v>45136</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/NOVICE.xlsx
+++ b/IMPORTANT/NOVICE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45136</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -2079,7 +2079,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.95" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="76" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <webPublishItems count="1">
     <webPublishItem id="16596" divId="MEMO BIG_16596" sourceType="sheet" destinationFile="E:\UPDATE\WEBSITE\2084377289testbysam\IMPORTANT\SAGAR UNCLE.htm" autoRepublish="1"/>
   </webPublishItems>

--- a/IMPORTANT/NOVICE.xlsx
+++ b/IMPORTANT/NOVICE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -54,10 +54,7 @@
     <t>CUSTOMER NAME -  NOVICE</t>
   </si>
   <si>
-    <t>insurance for 4 cartoon</t>
-  </si>
-  <si>
-    <t>RTGS</t>
+    <t>TILL 20-10-23</t>
   </si>
 </sst>
 </file>
@@ -1077,10 +1074,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:J38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1096,12 +1093,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="E1" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>11</v>
       </c>
@@ -1112,7 +1109,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1">
+    <row r="3" spans="1:9" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1121,7 +1118,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1147,150 +1144,108 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>45064</v>
-      </c>
+    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A5" s="7"/>
       <c r="B5" s="8">
-        <v>16640</v>
+        <v>89003</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>45062</v>
-      </c>
-      <c r="G5" s="8">
-        <v>10000</v>
-      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-109354</v>
+        <v>89003</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>45068</v>
-      </c>
-      <c r="B6" s="8">
-        <v>44582</v>
-      </c>
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>45094</v>
-      </c>
-      <c r="G6" s="8">
-        <v>18564</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-64772</v>
+        <v>89003</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>86</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>45068</v>
-      </c>
-      <c r="B7" s="16">
-        <v>5700</v>
-      </c>
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>45094</v>
-      </c>
-      <c r="G7" s="16">
-        <v>40000</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-59072</v>
+        <v>89003</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="19">
-        <v>200</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="15">
-        <v>45133</v>
-      </c>
-      <c r="G8" s="16">
-        <v>17430</v>
-      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="18"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-58872</v>
+        <v>89003</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52">
-        <v>45105</v>
-      </c>
-      <c r="B9" s="13">
-        <v>53490</v>
-      </c>
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="52"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15">
-        <v>45133</v>
-      </c>
-      <c r="G9" s="16">
-        <v>40000</v>
-      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-5382</v>
+        <v>89003</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52">
-        <v>45105</v>
-      </c>
-      <c r="B10" s="13">
-        <v>8620</v>
-      </c>
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="52"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="52"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
@@ -1299,14 +1254,14 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="52"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
@@ -1315,14 +1270,14 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="52"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -1331,14 +1286,14 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="52"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
@@ -1347,14 +1302,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="52"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
@@ -1363,14 +1318,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="52"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
@@ -1379,11 +1334,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1395,11 +1350,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1411,11 +1366,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1427,11 +1382,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1443,11 +1398,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1459,11 +1414,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1475,11 +1430,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1491,11 +1446,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1507,11 +1462,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1523,11 +1478,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1539,11 +1494,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1555,11 +1510,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1571,11 +1526,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1587,11 +1542,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,11 +1558,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1574,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1635,11 +1590,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1651,11 +1606,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1668,11 +1623,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45154</v>
+        <v>45223</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1693,7 +1648,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>129232</v>
+        <v>89003</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1701,7 +1656,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>125994</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1724,7 +1679,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>3238</v>
+        <v>89003</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
